--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\РЕПОЗИТОРИИ\CHECKLIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F583E144-4420-4C1C-BDCE-F1434CAE1EB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927304E6-A60D-4AB2-BE2D-D09331C4100C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1109,14 +1109,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="75.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1875,7 +1876,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>70</v>
       </c>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\РЕПОЗИТОРИИ\CHECKLIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927304E6-A60D-4AB2-BE2D-D09331C4100C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B556F956-5A50-4F82-8289-002F37CB34A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
   <si>
     <t>№</t>
   </si>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>Kuzmin/04.02.2021</t>
   </si>
   <si>
     <t>Игнорирование ввода значения месяца более 12
@@ -575,6 +572,12 @@
   </si>
   <si>
     <t>2.61</t>
+  </si>
+  <si>
+    <t>Sushchonok/04.02.2021</t>
+  </si>
+  <si>
+    <t>Sushchonok/05.02.2021</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1136,7 +1139,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1150,7 +1153,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1230,7 +1233,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1274,7 +1277,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1296,7 +1299,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1307,7 +1310,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1362,7 +1365,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1384,7 +1387,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1395,7 +1398,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1428,7 +1431,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1439,7 +1442,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1461,7 +1464,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1472,7 +1475,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1483,7 +1486,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -1505,7 +1508,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -1538,7 +1541,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -1549,7 +1552,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
@@ -1560,7 +1563,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
@@ -1571,7 +1574,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
@@ -1582,7 +1585,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
         <v>39</v>
@@ -1604,7 +1607,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
@@ -1626,7 +1629,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
@@ -1637,7 +1640,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
@@ -1648,7 +1651,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
         <v>39</v>
@@ -1659,7 +1662,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
@@ -1670,7 +1673,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
         <v>39</v>
@@ -1692,7 +1695,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
         <v>39</v>
@@ -1703,7 +1706,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
         <v>39</v>
@@ -1714,7 +1717,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
         <v>39</v>
@@ -1725,7 +1728,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
@@ -1736,7 +1739,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
         <v>39</v>
@@ -1747,7 +1750,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
         <v>39</v>
@@ -1758,7 +1761,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
         <v>39</v>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
         <v>39</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
         <v>39</v>
@@ -1791,7 +1794,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
         <v>39</v>
@@ -1802,7 +1805,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -1813,7 +1816,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
@@ -1833,18 +1836,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55174B81-4B19-45A8-A79D-7E20372CC6AC}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" customWidth="1"/>
     <col min="7" max="7" width="59.28515625" customWidth="1"/>
     <col min="8" max="8" width="53.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1876,7 +1880,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>70</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>83</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="2"/>
@@ -1987,19 +1991,19 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="J4" s="11" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="2"/>
@@ -2033,19 +2037,19 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>83</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="2"/>
@@ -2079,19 +2083,19 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>83</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="2"/>
@@ -2115,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>7</v>
@@ -2125,19 +2129,19 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>83</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="2"/>
@@ -2161,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>7</v>
@@ -2171,22 +2175,22 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>102</v>
-      </c>
       <c r="I8" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
